--- a/JavaTestTask/TASK2.xlsx
+++ b/JavaTestTask/TASK2.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/testTaskJava/testTask/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/testTaskInit/testTaskJava/JavaTestTask/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93A2530-826A-9444-857A-5F5CF5AF10FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE646A12-1F9F-884D-916C-BF943ECD4598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15980" activeTab="2" xr2:uid="{2F189F9E-DE8F-4A44-AA47-8D4BAAEDCE88}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15980" xr2:uid="{2F189F9E-DE8F-4A44-AA47-8D4BAAEDCE88}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Task2From" sheetId="1" r:id="rId1"/>
+    <sheet name="Task2To" sheetId="2" r:id="rId2"/>
     <sheet name="ForTask3Opt" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>fail</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>pas5</t>
+  </si>
+  <si>
+    <t>pass</t>
   </si>
 </sst>
 </file>
@@ -475,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE51E515-2B5A-1E4B-BD34-21C7B877537E}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -493,7 +496,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -503,7 +506,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -513,7 +516,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -525,7 +528,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC3D3C6-D0AE-894E-A741-16FDF522CF1F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -543,7 +548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D789EDC4-8D59-FA47-853B-316734D3DF50}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
